--- a/workspaces/mapping-params/mapping-params_scheds.xlsx
+++ b/workspaces/mapping-params/mapping-params_scheds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,64 +436,80 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gdpa</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>i=200 d=1.5 lr=1.5 b1=0.9 b2=0.999, e=0.1, g=0.9</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>i=200 d=1.5 lr=1 b1=0.9 b2=0.999, e=0.1, g=0.9</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>i=200 d=1.5 lr=2 b1=0.9 b2=0.999, e=0.1, g=0.9</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>i=200 d=1.5 lr=1.5 b1=0.9 b2=0.999, e=0.1, g=0.5</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>i=200 d=1.5 lr=1.5 b1=0.9 b2=0.999, e=0.1, g=1.5</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>i=200 d=1 lr=1.5 b1=0.9 b2=0.999, e=0.1, g=0.9</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>i=200 d=2 lr=1.5 b1=0.9 b2=0.999, e=0.1, g=0.9</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>i=200 d=2 lr=1 b1=0.9 b2=0.999, e=0.1, g=0.5</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H2" t="n">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="I2" t="n">
+        <v>47</v>
+      </c>
+      <c r="J2" t="n">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
